--- a/2020 venue2.xlsx
+++ b/2020 venue2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>Magi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The </t>
   </si>
   <si>
     <t>Odel</t>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>125 South College Avenue Fort Collins, Colorado</t>
+  </si>
+  <si>
+    <t>may</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F39"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,10 +1052,11 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.42578125" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1107,6 +1108,10 @@
         <v>-105.07652</v>
       </c>
       <c r="I2" t="str">
+        <f>CONCATENATE(" &lt;option value=$$",A2,"$$ vid=$$",F2,"$$&gt;",A2,"&lt;/option&gt;")</f>
+        <v xml:space="preserve"> &lt;option value=$$Aggie Theatre$$ vid=$$Aggi$$&gt;Aggie Theatre&lt;/option&gt;</v>
+      </c>
+      <c r="J2" t="str">
         <f>CONCATENATE("{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$",A2,"$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1126,9 +1131,9 @@
     }
   },</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1154,7 +1159,11 @@
         <v>-105.07489</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I39" si="0">CONCATENATE("{$$type$$: $$Feature$$,$$properties$$: {
+        <f t="shared" ref="I3:I39" si="0">CONCATENATE(" &lt;option value=$$",A3,"$$ vid=$$",F3,"$$&gt;",A3,"&lt;/option&gt;")</f>
+        <v xml:space="preserve"> &lt;option value=$$Art Lab Fort Collins$$ vid=$$Art $$&gt;Art Lab Fort Collins&lt;/option&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J39" si="1">CONCATENATE("{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$",A3,"$$,
       $$ST_CODE$$: $$MGRP$$,
     },
@@ -1174,7 +1183,7 @@
   },</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -1201,6 +1210,10 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Avogadro&amp;#39;s Number$$ vid=$$Avog$$&gt;Avogadro&amp;#39;s Number&lt;/option&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Avogadro&amp;#39;s Number$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1212,7 +1225,7 @@
   },</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1239,6 +1252,10 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Bar District$$ vid=$$bard$$&gt;The Bar District&lt;/option&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Bar District$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1250,7 +1267,7 @@
   },</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1277,6 +1294,10 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Colorado Room$$ vid=$$colr$$&gt;The Colorado Room&lt;/option&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Colorado Room$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1288,7 +1309,7 @@
   },</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1320,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -1315,6 +1336,10 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Downtown Artery / The Coast$$ vid=$$Down$$&gt;Downtown Artery / The Coast&lt;/option&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Downtown Artery / The Coast$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1326,7 +1351,7 @@
   },</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1351,6 +1376,10 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Element$$ vid=$$Elem$$&gt;Element&lt;/option&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Element$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1362,7 +1391,7 @@
   },</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1373,7 +1402,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
         <v>84</v>
@@ -1389,6 +1418,10 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Elliot&amp;#39;s$$ vid=$$Elli$$&gt;Elliot&amp;#39;s&lt;/option&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Elliot&amp;#39;s$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1400,7 +1433,7 @@
   },</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
@@ -1427,6 +1460,10 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Equinox Brewing$$ vid=$$Equi$$&gt;Equinox Brewing&lt;/option&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Equinox Brewing$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1438,7 +1475,7 @@
   },</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1486,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
         <v>109</v>
@@ -1465,6 +1502,10 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Everyday Joes$$ vid=$$Ever$$&gt;Everyday Joes&lt;/option&gt;</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Everyday Joes$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1476,7 +1517,7 @@
   },</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1528,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
         <v>86</v>
@@ -1503,6 +1544,10 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Exchange$$ vid=$$exc$$&gt;The Exchange&lt;/option&gt;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Exchange$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1514,7 +1559,7 @@
   },</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1570,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
         <v>87</v>
@@ -1541,6 +1586,10 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Fort Collins Museum of Discovery - Otter Box Digital Dome Theater$$ vid=$$fcdo$$&gt;Fort Collins Museum of Discovery - Otter Box Digital Dome Theater&lt;/option&gt;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Fort Collins Museum of Discovery - Otter Box Digital Dome Theater$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1552,7 +1601,7 @@
   },</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1579,6 +1628,10 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Fort Collins Museum of Discovery - Exhibit Hall$$ vid=$$fcde$$&gt;Fort Collins Museum of Discovery - Exhibit Hall&lt;/option&gt;</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Fort Collins Museum of Discovery - Exhibit Hall$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1590,24 +1643,24 @@
   },</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15">
         <v>40.590223999999999</v>
@@ -1617,6 +1670,10 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Ginger and Baker$$ vid=$$gin$$&gt;Ginger and Baker&lt;/option&gt;</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Ginger and Baker$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1628,7 +1685,7 @@
   },</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1655,6 +1712,10 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$High Point Bar$$ vid=$$High$$&gt;High Point Bar&lt;/option&gt;</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$High Point Bar$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1666,24 +1727,24 @@
   },</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7">
         <v>40.588433000000002</v>
@@ -1693,6 +1754,10 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Hodi&amp;#39;s Half Note$$ vid=$$Hodi$$&gt;Hodi&amp;#39;s Half Note&lt;/option&gt;</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Hodi&amp;#39;s Half Note$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1704,7 +1769,7 @@
   },</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1715,7 +1780,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -1731,6 +1796,10 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Illegal Pete&amp;#39;s$$ vid=$$Ille$$&gt;Illegal Pete&amp;#39;s&lt;/option&gt;</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Illegal Pete&amp;#39;s$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1742,7 +1811,7 @@
   },</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1822,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
@@ -1769,6 +1838,10 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Magic Rat$$ vid=$$Magi$$&gt;Magic Rat&lt;/option&gt;</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Magic Rat$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1780,7 +1853,7 @@
   },</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1870,7 @@
         <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="G20">
         <v>40.587670000000003</v>
@@ -1807,6 +1880,10 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Mayor of Old Town$$ vid=$$may$$&gt;The Mayor of Old Town&lt;/option&gt;</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Mayor of Old Town$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1818,7 +1895,7 @@
   },</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1845,6 +1922,10 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Moe&amp;#39;s Original Bar B Que$$ vid=$$moe$$&gt;Moe&amp;#39;s Original Bar B Que&lt;/option&gt;</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Moe&amp;#39;s Original Bar B Que$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1856,7 +1937,7 @@
   },</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1883,6 +1964,10 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$New Belgium Brewing Co. - Tasting Room$$ vid=$$newt$$&gt;New Belgium Brewing Co. - Tasting Room&lt;/option&gt;</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$New Belgium Brewing Co. - Tasting Room$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1894,7 +1979,7 @@
   },</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1921,6 +2006,10 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$New Belgium Brewing Co. - Patio$$ vid=$$newp$$&gt;New Belgium Brewing Co. - Patio&lt;/option&gt;</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$New Belgium Brewing Co. - Patio$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1932,7 +2021,7 @@
   },</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +2038,7 @@
         <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24">
         <v>40.588900000000002</v>
@@ -1959,6 +2048,10 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Odell Brewing Co.$$ vid=$$Odel$$&gt;Odell Brewing Co.&lt;/option&gt;</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Odell Brewing Co.$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -1970,7 +2063,7 @@
   },</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2078,7 @@
         <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25">
         <v>40.587989999999998</v>
@@ -1995,6 +2088,10 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Old Town Square- Sound Off Silent Disco$$ vid=$$Old $$&gt;Old Town Square- Sound Off Silent Disco&lt;/option&gt;</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Old Town Square- Sound Off Silent Disco$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2006,7 +2103,7 @@
   },</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2017,13 +2114,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
         <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26">
         <v>40.588401400000002</v>
@@ -2033,6 +2130,10 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Prost Brewing Co. &amp; Biergarten $$ vid=$$Pros$$&gt;Prost Brewing Co. &amp; Biergarten &lt;/option&gt;</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Prost Brewing Co. &amp; Biergarten $$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2044,7 +2145,7 @@
   },</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2156,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
         <v>104</v>
@@ -2071,6 +2172,10 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$R Bar and Lounge$$ vid=$$rbar$$&gt;R Bar and Lounge&lt;/option&gt;</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$R Bar and Lounge$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2082,7 +2187,7 @@
   },</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2109,6 +2214,10 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Rec Room$$ vid=$$rec$$&gt;The Rec Room&lt;/option&gt;</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Rec Room$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2120,7 +2229,7 @@
   },</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2137,7 +2246,7 @@
         <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29">
         <v>40.589260000000003</v>
@@ -2147,6 +2256,10 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Red Truck Brewery$$ vid=$$Red $$&gt;Red Truck Brewery&lt;/option&gt;</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Red Truck Brewery$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2158,7 +2271,7 @@
   },</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2169,7 +2282,7 @@
         <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
         <v>110</v>
@@ -2185,6 +2298,10 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Regional $$ vid=$$regi$$&gt;The Regional &lt;/option&gt;</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Regional $$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2196,7 +2313,7 @@
   },</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2324,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
         <v>106</v>
@@ -2223,6 +2340,10 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Rickshaw Live$$ vid=$$reck$$&gt;The Rickshaw Live&lt;/option&gt;</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Rickshaw Live$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2234,24 +2355,24 @@
   },</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G32" s="7">
         <v>40.586441999999998</v>
@@ -2261,6 +2382,10 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Rove$$ vid=$$rov$$&gt;Rove&lt;/option&gt;</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Rove$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2272,7 +2397,7 @@
   },</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2283,13 +2408,13 @@
         <v>49</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G33">
         <v>40.589489999999998</v>
@@ -2299,6 +2424,10 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Scrumpy&amp;#39;s Hard Cider Bar and Pub$$ vid=$$Scru$$&gt;Scrumpy&amp;#39;s Hard Cider Bar and Pub&lt;/option&gt;</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Scrumpy&amp;#39;s Hard Cider Bar and Pub$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2310,7 +2439,7 @@
   },</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2321,13 +2450,13 @@
         <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
         <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34">
         <v>40.588645499999998</v>
@@ -2337,6 +2466,10 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Surfside 7$$ vid=$$Surf$$&gt;Surfside 7&lt;/option&gt;</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Surfside 7$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2348,7 +2481,7 @@
   },</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -2359,13 +2492,13 @@
         <v>49</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
         <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35">
         <v>40.58381</v>
@@ -2375,6 +2508,10 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Tap and Handle$$ vid=$$Tap $$&gt;Tap and Handle&lt;/option&gt;</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Tap and Handle$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2386,7 +2523,7 @@
   },</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2403,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G36">
         <v>40.584780000000002</v>
@@ -2413,6 +2550,10 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Tony&amp;#39;s Bar &amp; Rooftop$$ vid=$$Tony$$&gt;Tony&amp;#39;s Bar &amp; Rooftop&lt;/option&gt;</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Tony&amp;#39;s Bar &amp; Rooftop$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2424,7 +2565,7 @@
   },</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2441,7 +2582,7 @@
         <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G37">
         <v>40.589440000000003</v>
@@ -2451,6 +2592,10 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Washington&amp;#39;s $$ vid=$$Wash$$&gt;Washington&amp;#39;s &lt;/option&gt;</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Washington&amp;#39;s $$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2462,7 +2607,7 @@
   },</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2489,6 +2634,10 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$The Whisk(e)y$$ vid=$$whi$$&gt;The Whisk(e)y&lt;/option&gt;</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$The Whisk(e)y$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2500,7 +2649,7 @@
   },</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -2511,13 +2660,13 @@
         <v>43</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
         <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39">
         <v>40.590679999999999</v>
@@ -2527,6 +2676,10 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve"> &lt;option value=$$Wolverine Farm Letterpress &amp; Publick House$$ vid=$$Wolv$$&gt;Wolverine Farm Letterpress &amp; Publick House&lt;/option&gt;</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
         <v>{$$type$$: $$Feature$$,$$properties$$: {
       $$STATION$$: $$Wolverine Farm Letterpress &amp; Publick House$$,
       $$ST_CODE$$: $$MGRP$$,
@@ -2537,7 +2690,7 @@
     }
   },</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
